--- a/tests/end_to_end/validation/input/test_03/validation_test_03_data.xlsx
+++ b/tests/end_to_end/validation/input/test_03/validation_test_03_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vitoresearch-my.sharepoint.com/personal/dirk_devriendt_ext_vito_be/Documents/Documents/git/pypeh/tests/end_to_end/validation/input/test_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisschog\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3714EA0C-BEDA-47E1-AC0D-DE4F18FE0B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD24E12-65AE-48C2-93D9-542990082956}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E13B8-6F85-475E-9DCB-8682884D8136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLE" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id_sample</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>chol_loq</t>
+  </si>
+  <si>
+    <t>matrix</t>
+  </si>
+  <si>
+    <t>BWB</t>
   </si>
 </sst>
 </file>
@@ -407,11 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,7 +430,7 @@
     <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +449,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31</v>
       </c>
@@ -462,6 +471,9 @@
       </c>
       <c r="F2">
         <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
